--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H2">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N2">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P2">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q2">
-        <v>13.553690284411</v>
+        <v>0.002514856952</v>
       </c>
       <c r="R2">
-        <v>121.983212559699</v>
+        <v>0.022633712568</v>
       </c>
       <c r="S2">
-        <v>0.02145173974089475</v>
+        <v>3.899083060245817E-05</v>
       </c>
       <c r="T2">
-        <v>0.02145173974089475</v>
+        <v>3.899083060245818E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H3">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P3">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q3">
-        <v>0.07864788216244442</v>
+        <v>0.01435511077422222</v>
       </c>
       <c r="R3">
-        <v>0.7078309394619998</v>
+        <v>0.129195996968</v>
       </c>
       <c r="S3">
-        <v>0.0001244778258849401</v>
+        <v>0.0002225644253968767</v>
       </c>
       <c r="T3">
-        <v>0.0001244778258849401</v>
+        <v>0.0002225644253968767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H4">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N4">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P4">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q4">
-        <v>0.7162060065961111</v>
+        <v>0.2532336896195556</v>
       </c>
       <c r="R4">
-        <v>6.445854059365</v>
+        <v>2.279103206576</v>
       </c>
       <c r="S4">
-        <v>0.001133555845822766</v>
+        <v>0.00392618430521036</v>
       </c>
       <c r="T4">
-        <v>0.001133555845822766</v>
+        <v>0.00392618430521036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>74.947</v>
       </c>
       <c r="I5">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J5">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N5">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P5">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q5">
-        <v>572.2577435530001</v>
+        <v>0.581738614</v>
       </c>
       <c r="R5">
-        <v>5150.319691977001</v>
+        <v>5.235647526</v>
       </c>
       <c r="S5">
-        <v>0.9057255936805643</v>
+        <v>0.009019388452827912</v>
       </c>
       <c r="T5">
-        <v>0.9057255936805644</v>
+        <v>0.009019388452827916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.947</v>
       </c>
       <c r="I6">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J6">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P6">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q6">
         <v>3.320635091777777</v>
@@ -818,10 +818,10 @@
         <v>29.885715826</v>
       </c>
       <c r="S6">
-        <v>0.005255646120616265</v>
+        <v>0.05148377137439881</v>
       </c>
       <c r="T6">
-        <v>0.005255646120616266</v>
+        <v>0.05148377137439882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.947</v>
       </c>
       <c r="I7">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J7">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N7">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P7">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q7">
-        <v>30.23932409944445</v>
+        <v>58.57820879244446</v>
       </c>
       <c r="R7">
-        <v>272.153916895</v>
+        <v>527.2038791320001</v>
       </c>
       <c r="S7">
-        <v>0.04786047909534615</v>
+        <v>0.9082079257848887</v>
       </c>
       <c r="T7">
-        <v>0.04786047909534615</v>
+        <v>0.9082079257848888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H8">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>22.906497</v>
+        <v>0.023286</v>
       </c>
       <c r="N8">
-        <v>68.719491</v>
+        <v>0.069858</v>
       </c>
       <c r="O8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795457</v>
       </c>
       <c r="P8">
-        <v>0.9446038650914245</v>
+        <v>0.009310710475795458</v>
       </c>
       <c r="Q8">
-        <v>11.010473548489</v>
+        <v>0.016275027834</v>
       </c>
       <c r="R8">
-        <v>99.094261936401</v>
+        <v>0.146475250506</v>
       </c>
       <c r="S8">
-        <v>0.01742653166996549</v>
+        <v>0.0002523311923650859</v>
       </c>
       <c r="T8">
-        <v>0.0174265316699655</v>
+        <v>0.0002523311923650861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H9">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.3987579999999999</v>
       </c>
       <c r="O9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834813</v>
       </c>
       <c r="P9">
-        <v>0.005481244732096839</v>
+        <v>0.05314667307834814</v>
       </c>
       <c r="Q9">
-        <v>0.06389038025977777</v>
+        <v>0.09289984753399999</v>
       </c>
       <c r="R9">
-        <v>0.5750134223379999</v>
+        <v>0.836098627806</v>
       </c>
       <c r="S9">
-        <v>0.000101120785595634</v>
+        <v>0.001440337278552448</v>
       </c>
       <c r="T9">
-        <v>0.000101120785595634</v>
+        <v>0.001440337278552449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H10">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.210428333333333</v>
+        <v>2.344785333333334</v>
       </c>
       <c r="N10">
-        <v>3.631285</v>
+        <v>7.034356000000001</v>
       </c>
       <c r="O10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="P10">
-        <v>0.04991489017647865</v>
+        <v>0.9375426164458565</v>
       </c>
       <c r="Q10">
-        <v>0.5818169904594445</v>
+        <v>1.638815020388001</v>
       </c>
       <c r="R10">
-        <v>5.236352914135</v>
+        <v>14.749335183492</v>
       </c>
       <c r="S10">
-        <v>0.0009208552353097414</v>
+        <v>0.02540850635575735</v>
       </c>
       <c r="T10">
-        <v>0.0009208552353097414</v>
+        <v>0.02540850635575735</v>
       </c>
     </row>
   </sheetData>
